--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56609.98141048133</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56609.98141048133</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960121617.2288802</v>
+        <v>40463486.11640886</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8996.048214687755</v>
+        <v>1033537.926993995</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16420.91658159333</v>
+        <v>1820648.577201866</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23845.33306679374</v>
+        <v>2607759.227409738</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31291.74436075633</v>
+        <v>3394877.907484289</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38737.98331416039</v>
+        <v>4181988.557692162</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46184.22226756444</v>
+        <v>4969099.207900033</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53630.46122096848</v>
+        <v>5756209.858107902</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61076.70017437256</v>
+        <v>6543320.50831577</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68522.93912777658</v>
+        <v>7330431.158523639</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75969.17808118061</v>
+        <v>8117541.808731508</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83415.4170345857</v>
+        <v>8904652.458939381</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90861.65598798897</v>
+        <v>9691763.109147258</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98307.89494139313</v>
+        <v>10478873.75935514</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105754.1338947971</v>
+        <v>11265984.40956301</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113200.3728482011</v>
+        <v>12053095.05977089</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
